--- a/excel/spu.xlsx
+++ b/excel/spu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyongming/Documents/纯帮忙/进销存-晋辉/excel导入模版/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FF882-7439-1940-A30F-48DC0D2C6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE89DF2-5B58-1D4A-AFB7-EA593750D636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="4700" windowWidth="28240" windowHeight="17440" xr2:uid="{079E599B-D2D4-8049-BA9C-FB915ECB7B94}"/>
+    <workbookView xWindow="3780" yWindow="9460" windowWidth="28240" windowHeight="17440" xr2:uid="{079E599B-D2D4-8049-BA9C-FB915ECB7B94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,22 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购地址链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电商平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否分批次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +76,42 @@
   </si>
   <si>
     <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPU代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否分批次商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美瞳_紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼美瞳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye-big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfsfd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B72C1A2-D77D-6C44-8B5C-18F675618336}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -486,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="60" customHeight="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -495,45 +519,69 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7E5576C8-358D-4C45-B952-61DB3438141D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A018DCA2-F576-EB43-8FB8-DD4C6171BCA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
